--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -8,11 +8,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>WorkbookName</t>
   </si>
   <si>
+    <t>Scen_UC_SOLCAP.xlsx</t>
+  </si>
+  <si>
+    <t>Scen_UC_WINDCAP.xlsx</t>
+  </si>
+  <si>
     <t>Sets-DemoModels.xlsx</t>
   </si>
   <si>
@@ -25,6 +31,15 @@
     <t>SheetName</t>
   </si>
   <si>
+    <t>UC_SOLCAP</t>
+  </si>
+  <si>
+    <t>UC_WINDCAP</t>
+  </si>
+  <si>
+    <t>TFILL_WIND</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -37,15 +52,15 @@
     <t>Type</t>
   </si>
   <si>
+    <t>RegularScenario</t>
+  </si>
+  <si>
     <t>SetRules</t>
   </si>
   <si>
     <t>SysSettings</t>
   </si>
   <si>
-    <t>RegularScenario</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -58,12 +73,18 @@
     <t>Attribute</t>
   </si>
   <si>
+    <t>UC_CAP</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>Share-I</t>
+  </si>
+  <si>
     <t>Share-O</t>
   </si>
   <si>
-    <t>Share-I</t>
-  </si>
-  <si>
     <t>COM_BNDNET</t>
   </si>
   <si>
@@ -76,7 +97,10 @@
     <t>Message</t>
   </si>
   <si>
-    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR</t>
+    <t>The process filter generated no records</t>
+  </si>
+  <si>
+    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR ,PP_RENEW</t>
   </si>
   <si>
     <t>No records were generated for this row</t>
@@ -88,30 +112,51 @@
     <t>CellAddress</t>
   </si>
   <si>
+    <t>9,11</t>
+  </si>
+  <si>
+    <t>8,11</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
     <t>6,2</t>
   </si>
   <si>
-    <t>7,2</t>
+    <t>14,21</t>
+  </si>
+  <si>
+    <t>13,21</t>
+  </si>
+  <si>
+    <t>12,21</t>
+  </si>
+  <si>
+    <t>9,2</t>
   </si>
   <si>
     <t>8,2</t>
   </si>
   <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>12,21</t>
-  </si>
-  <si>
-    <t>13,21</t>
-  </si>
-  <si>
-    <t>14,21</t>
-  </si>
-  <si>
     <t>TagType</t>
   </si>
   <si>
+    <t>UC_T</t>
+  </si>
+  <si>
+    <t>TFM_FILL</t>
+  </si>
+  <si>
     <t>TFM_MIG</t>
   </si>
   <si>
@@ -121,13 +166,28 @@
     <t>ProcessFilter</t>
   </si>
   <si>
+    <t>{"pset_ci": "ELCSOL"}</t>
+  </si>
+  <si>
+    <t>{"pset_ci": "ELCSOL", "pset_set": "ELE"}</t>
+  </si>
+  <si>
+    <t>{"pset_ci": "ELCWINON"}</t>
+  </si>
+  <si>
+    <t>{"pset_ci": "ELCWINON", "pset_set": "ELE"}</t>
+  </si>
+  <si>
+    <t>{"pset_pn": "ELERNWINDON"}</t>
+  </si>
+  <si>
     <t>CommodityFilter</t>
   </si>
   <si>
+    <t>{"cset_cn": "TRACO2"}</t>
+  </si>
+  <si>
     <t>{"cset_cn": "ELCCO2"}</t>
-  </si>
-  <si>
-    <t>{"cset_cn": "TRACO2"}</t>
   </si>
 </sst>
 </file>
@@ -292,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
@@ -303,34 +363,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -338,314 +398,629 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
         <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -100,7 +100,7 @@
     <t>The process filter generated no records</t>
   </si>
   <si>
-    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR ,PP_RENEW</t>
+    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR</t>
   </si>
   <si>
     <t>No records were generated for this row</t>

--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -8,14 +8,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>WorkbookName</t>
   </si>
   <si>
-    <t>Scen_UC_SOLCAP.xlsx</t>
-  </si>
-  <si>
     <t>Scen_UC_WINDCAP.xlsx</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>SheetName</t>
   </si>
   <si>
-    <t>UC_SOLCAP</t>
-  </si>
-  <si>
     <t>UC_WINDCAP</t>
   </si>
   <si>
@@ -164,12 +158,6 @@
   </si>
   <si>
     <t>ProcessFilter</t>
-  </si>
-  <si>
-    <t>{"pset_ci": "ELCSOL"}</t>
-  </si>
-  <si>
-    <t>{"pset_ci": "ELCSOL", "pset_set": "ELE"}</t>
   </si>
   <si>
     <t>{"pset_ci": "ELCWINON"}</t>
@@ -352,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
@@ -363,34 +351,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -398,34 +386,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -433,34 +421,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -468,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -503,69 +491,69 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -576,171 +564,171 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -748,34 +736,34 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -783,244 +771,104 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
@@ -593,31 +593,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -663,37 +663,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -789,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -868,6 +868,41 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
         <v>55</v>
       </c>
     </row>

--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
@@ -593,31 +593,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>8</v>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -649,7 +649,7 @@
         <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
@@ -663,37 +663,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>48</v>
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>48</v>
@@ -789,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
         <v>48</v>
@@ -868,41 +868,6 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" t="s">
         <v>55</v>
       </c>
     </row>
